--- a/测试参数文件/PosMode测试参数/aTest/30deg/0.15g_30deg.xlsx
+++ b/测试参数文件/PosMode测试参数/aTest/30deg/0.15g_30deg.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bin__\Desktop\测试数据处理\测试条件\aTest\30deg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rd01\Desktop\20170328PosMode测试参数\aTest\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">配置文件!$A$1:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E16" s="17">
         <f>B17/(40000000/200)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>50</v>
@@ -1081,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="8">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="13"/>
@@ -1192,7 +1192,7 @@
       <c r="C24" s="25"/>
       <c r="D24" s="13" t="str">
         <f>"DataSize="&amp;B17</f>
-        <v>DataSize=1000000</v>
+        <v>DataSize=800000</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="22"/>
@@ -1236,7 +1236,7 @@
 MaxSpeed=750mm/s
 Pre-Stop time=1s
 ScanIntervals=200
-DataSize=1000000
+DataSize=800000
 Tilt=30deg
 T=25.9 RH=73%</v>
       </c>
